--- a/INTLINE/data/578/BOT/International Reserves_historical.xlsx
+++ b/INTLINE/data/578/BOT/International Reserves_historical.xlsx
@@ -5057,7 +5057,9 @@
       <c r="XE2" t="n">
         <v>14887.13</v>
       </c>
-      <c r="XF2" t="inlineStr"/>
+      <c r="XF2" t="n">
+        <v>14420.43</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -6603,7 +6605,9 @@
       <c r="XE3" t="n">
         <v>5471.71</v>
       </c>
-      <c r="XF3" t="inlineStr"/>
+      <c r="XF3" t="n">
+        <v>5501.08</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -8149,7 +8153,9 @@
       <c r="XE4" t="n">
         <v>1221.98</v>
       </c>
-      <c r="XF4" t="inlineStr"/>
+      <c r="XF4" t="n">
+        <v>1228.39</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -9695,7 +9701,9 @@
       <c r="XE5" t="n">
         <v>206993.69</v>
       </c>
-      <c r="XF5" t="inlineStr"/>
+      <c r="XF5" t="n">
+        <v>208847.97</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -11587,7 +11595,9 @@
       <c r="XE6" t="n">
         <v>228574.51</v>
       </c>
-      <c r="XF6" t="inlineStr"/>
+      <c r="XF6" t="n">
+        <v>229997.87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
